--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_10-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_10-16.xlsx
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>0:2</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>Friday, 16 January, 2026 10:16 AM</t>
@@ -679,38 +697,116 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="K6" s="10">
-        <v>95</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c t="s" r="A7" s="11">
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c t="s" r="B6" s="7">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c t="s" r="F7" s="12">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c t="s" r="H6" s="8">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <v>31</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c t="s" r="N6" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B7" s="7">
         <v>14</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c t="s" r="I7" s="14">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c t="s" r="H7" s="8">
         <v>15</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <v>39</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c t="s" r="N7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>31.359999999999999</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c t="s" r="N8" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="K9" s="10">
+        <v>196.36000000000001</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="11">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c t="s" r="F10" s="12">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c t="s" r="I10" s="14">
+        <v>21</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -724,10 +820,19 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:N10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
